--- a/Code/Results/Cases/Case_5_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_167/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.76766181985814</v>
+        <v>13.36538210713172</v>
       </c>
       <c r="C2">
-        <v>6.396420797607702</v>
+        <v>6.695632360840241</v>
       </c>
       <c r="D2">
-        <v>5.160588785553365</v>
+        <v>7.963456263971554</v>
       </c>
       <c r="E2">
-        <v>7.526161133734169</v>
+        <v>12.84960670177668</v>
       </c>
       <c r="F2">
-        <v>24.05246289476336</v>
+        <v>37.25589866466917</v>
       </c>
       <c r="I2">
-        <v>17.29925004348614</v>
+        <v>28.00070937863699</v>
       </c>
       <c r="J2">
-        <v>5.956386531897357</v>
+        <v>10.14632020270577</v>
       </c>
       <c r="K2">
-        <v>10.41370882194146</v>
+        <v>10.74762511573998</v>
       </c>
       <c r="L2">
-        <v>6.633205048983831</v>
+        <v>11.19551048030369</v>
       </c>
       <c r="M2">
-        <v>9.92929074095291</v>
+        <v>15.38524925947976</v>
       </c>
       <c r="N2">
-        <v>13.85703194162394</v>
+        <v>21.41455861298659</v>
       </c>
       <c r="O2">
-        <v>18.05539962713946</v>
+        <v>28.77495283335093</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.01153350180705</v>
+        <v>13.19134087224952</v>
       </c>
       <c r="C3">
-        <v>6.214878383612107</v>
+        <v>6.634402995201029</v>
       </c>
       <c r="D3">
-        <v>5.024871418618758</v>
+        <v>7.954597282926569</v>
       </c>
       <c r="E3">
-        <v>7.53290290692351</v>
+        <v>12.87095082194856</v>
       </c>
       <c r="F3">
-        <v>23.969337928178</v>
+        <v>37.34020316456343</v>
       </c>
       <c r="I3">
-        <v>17.43220816540556</v>
+        <v>28.08630121466519</v>
       </c>
       <c r="J3">
-        <v>5.995508339153605</v>
+        <v>10.16130629157166</v>
       </c>
       <c r="K3">
-        <v>9.775074768322938</v>
+        <v>10.62279215314741</v>
       </c>
       <c r="L3">
-        <v>6.569632336203463</v>
+        <v>11.20415672931712</v>
       </c>
       <c r="M3">
-        <v>9.650820295800063</v>
+        <v>15.36437822379487</v>
       </c>
       <c r="N3">
-        <v>14.04290525143982</v>
+        <v>21.47173500941641</v>
       </c>
       <c r="O3">
-        <v>18.10618147424357</v>
+        <v>28.85430788210193</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.52528517768521</v>
+        <v>13.08553309970777</v>
       </c>
       <c r="C4">
-        <v>6.10031296947255</v>
+        <v>6.595948487652365</v>
       </c>
       <c r="D4">
-        <v>4.941347138364476</v>
+        <v>7.950142678483177</v>
       </c>
       <c r="E4">
-        <v>7.539417727423192</v>
+        <v>12.88524882360572</v>
       </c>
       <c r="F4">
-        <v>23.93361178585252</v>
+        <v>37.39844483412981</v>
       </c>
       <c r="I4">
-        <v>17.52300605879902</v>
+        <v>28.14282860660882</v>
       </c>
       <c r="J4">
-        <v>6.020386592255926</v>
+        <v>10.17100951227416</v>
       </c>
       <c r="K4">
-        <v>9.360904194380634</v>
+        <v>10.54703833805142</v>
       </c>
       <c r="L4">
-        <v>6.532467103235892</v>
+        <v>11.21062491242877</v>
       </c>
       <c r="M4">
-        <v>9.478864001530491</v>
+        <v>15.35341062579724</v>
       </c>
       <c r="N4">
-        <v>14.15980368768299</v>
+        <v>21.50851003005478</v>
       </c>
       <c r="O4">
-        <v>18.14833451581068</v>
+        <v>28.90756208757643</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.32174849906415</v>
+        <v>13.04272982242598</v>
       </c>
       <c r="C5">
-        <v>6.052882425523959</v>
+        <v>6.580068127104761</v>
       </c>
       <c r="D5">
-        <v>4.907310187911867</v>
+        <v>7.948576769787878</v>
       </c>
       <c r="E5">
-        <v>7.542662574970156</v>
+        <v>12.89137582664983</v>
       </c>
       <c r="F5">
-        <v>23.92281501078959</v>
+        <v>37.42380704983395</v>
       </c>
       <c r="I5">
-        <v>17.56224508523331</v>
+        <v>28.16686369523543</v>
       </c>
       <c r="J5">
-        <v>6.030742603130736</v>
+        <v>10.17509016190037</v>
       </c>
       <c r="K5">
-        <v>9.186598507829066</v>
+        <v>10.51642546351323</v>
       </c>
       <c r="L5">
-        <v>6.517799612626591</v>
+        <v>11.21355297384081</v>
       </c>
       <c r="M5">
-        <v>9.408645285784035</v>
+        <v>15.34940944668438</v>
       </c>
       <c r="N5">
-        <v>14.20815445935849</v>
+        <v>21.5239168964715</v>
       </c>
       <c r="O5">
-        <v>18.16818695117625</v>
+        <v>28.93040249528845</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.28763085634492</v>
+        <v>13.035642779749</v>
       </c>
       <c r="C6">
-        <v>6.044962751091256</v>
+        <v>6.577418716600708</v>
       </c>
       <c r="D6">
-        <v>4.901659825504032</v>
+        <v>7.948331862024081</v>
       </c>
       <c r="E6">
-        <v>7.543236799560465</v>
+        <v>12.89241137357041</v>
       </c>
       <c r="F6">
-        <v>23.92124674363125</v>
+        <v>37.4281167434979</v>
       </c>
       <c r="I6">
-        <v>17.56889401802831</v>
+        <v>28.17091509896867</v>
       </c>
       <c r="J6">
-        <v>6.03247544027691</v>
+        <v>10.17577540180916</v>
       </c>
       <c r="K6">
-        <v>9.157321981256933</v>
+        <v>10.51135871092006</v>
       </c>
       <c r="L6">
-        <v>6.515393145231798</v>
+        <v>11.21405684551831</v>
       </c>
       <c r="M6">
-        <v>9.396979775457396</v>
+        <v>15.34877343558607</v>
       </c>
       <c r="N6">
-        <v>14.21622665392178</v>
+        <v>21.52650064211404</v>
       </c>
       <c r="O6">
-        <v>18.17164252999051</v>
+        <v>28.93426390737401</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.52256180927877</v>
+        <v>13.08495450269525</v>
       </c>
       <c r="C7">
-        <v>6.099676269541982</v>
+        <v>6.595735160830898</v>
       </c>
       <c r="D7">
-        <v>4.940888039150234</v>
+        <v>7.95012054815741</v>
       </c>
       <c r="E7">
-        <v>7.539459109341509</v>
+        <v>12.88533023725595</v>
       </c>
       <c r="F7">
-        <v>23.93345106537409</v>
+        <v>37.39878028621671</v>
       </c>
       <c r="I7">
-        <v>17.52352627211101</v>
+        <v>28.14314870372121</v>
       </c>
       <c r="J7">
-        <v>6.020525371617522</v>
+        <v>10.17106403264551</v>
       </c>
       <c r="K7">
-        <v>9.358575800530838</v>
+        <v>10.54662439708299</v>
       </c>
       <c r="L7">
-        <v>6.53226734874411</v>
+        <v>11.21066321718544</v>
       </c>
       <c r="M7">
-        <v>9.477917459206063</v>
+        <v>15.35335476404914</v>
       </c>
       <c r="N7">
-        <v>14.16045285152489</v>
+        <v>21.50871610727061</v>
       </c>
       <c r="O7">
-        <v>18.14859153364267</v>
+        <v>28.90786551027027</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.51158581307319</v>
+        <v>13.30518345375276</v>
       </c>
       <c r="C8">
-        <v>6.334487667666706</v>
+        <v>6.674702583014745</v>
       </c>
       <c r="D8">
-        <v>5.113861973891133</v>
+        <v>7.960198353692187</v>
       </c>
       <c r="E8">
-        <v>7.527988324871347</v>
+        <v>12.85671896027803</v>
       </c>
       <c r="F8">
-        <v>24.02057133877808</v>
+        <v>37.28362185379812</v>
       </c>
       <c r="I8">
-        <v>17.34315228947053</v>
+        <v>28.02939701832913</v>
       </c>
       <c r="J8">
-        <v>5.96969923031562</v>
+        <v>10.15138348991171</v>
       </c>
       <c r="K8">
-        <v>10.19809017954472</v>
+        <v>10.70441678833007</v>
       </c>
       <c r="L8">
-        <v>6.610902227510945</v>
+        <v>11.19825151000534</v>
       </c>
       <c r="M8">
-        <v>9.83353458203114</v>
+        <v>15.37767179600848</v>
       </c>
       <c r="N8">
-        <v>13.9205561774883</v>
+        <v>21.43392746270413</v>
       </c>
       <c r="O8">
-        <v>18.07058069629863</v>
+        <v>28.80137417392836</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.27199750074742</v>
+        <v>13.74324987089821</v>
       </c>
       <c r="C9">
-        <v>6.769027043141682</v>
+        <v>6.822469423968106</v>
       </c>
       <c r="D9">
-        <v>5.449518424950067</v>
+        <v>7.987695149408634</v>
       </c>
       <c r="E9">
-        <v>7.524666618958867</v>
+        <v>12.81005065813148</v>
       </c>
       <c r="F9">
-        <v>24.31663554334218</v>
+        <v>37.10922935887071</v>
       </c>
       <c r="I9">
-        <v>17.06522159885321</v>
+        <v>27.83783657662017</v>
       </c>
       <c r="J9">
-        <v>5.876721536781242</v>
+        <v>10.11675472726563</v>
       </c>
       <c r="K9">
-        <v>11.66921860727309</v>
+        <v>11.01949735549784</v>
       </c>
       <c r="L9">
-        <v>6.779558311420114</v>
+        <v>11.18307993518452</v>
       </c>
       <c r="M9">
-        <v>10.51907692968283</v>
+        <v>15.43984487921818</v>
       </c>
       <c r="N9">
-        <v>13.47130951466314</v>
+        <v>21.30045042985808</v>
       </c>
       <c r="O9">
-        <v>18.00849148948092</v>
+        <v>28.62849532349913</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.48451713918386</v>
+        <v>14.06598710138397</v>
       </c>
       <c r="C10">
-        <v>7.070929133399079</v>
+        <v>6.926362933717598</v>
       </c>
       <c r="D10">
-        <v>5.691467018458429</v>
+        <v>8.012498875185969</v>
       </c>
       <c r="E10">
-        <v>7.53435864733646</v>
+        <v>12.78148389353953</v>
       </c>
       <c r="F10">
-        <v>24.61521911983062</v>
+        <v>37.01249160027564</v>
       </c>
       <c r="I10">
-        <v>16.91172003971815</v>
+        <v>27.71627246617028</v>
       </c>
       <c r="J10">
-        <v>5.812331380842547</v>
+        <v>10.09370748013383</v>
       </c>
       <c r="K10">
-        <v>12.64352396347879</v>
+        <v>11.25249355141858</v>
       </c>
       <c r="L10">
-        <v>6.911744797952088</v>
+        <v>11.17747944793907</v>
       </c>
       <c r="M10">
-        <v>11.01053028693285</v>
+        <v>15.49411566023979</v>
       </c>
       <c r="N10">
-        <v>13.15298985101601</v>
+        <v>21.21034289319119</v>
       </c>
       <c r="O10">
-        <v>18.02357843786264</v>
+        <v>28.52340685459263</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.03697421272013</v>
+        <v>14.21240084361255</v>
       </c>
       <c r="C11">
-        <v>7.204245945043144</v>
+        <v>6.972540807652806</v>
       </c>
       <c r="D11">
-        <v>5.800057824694941</v>
+        <v>8.024755523230342</v>
       </c>
       <c r="E11">
-        <v>7.541496514653883</v>
+        <v>12.76972308288734</v>
       </c>
       <c r="F11">
-        <v>24.76955502124229</v>
+        <v>36.97530221019591</v>
       </c>
       <c r="I11">
-        <v>16.85394151429082</v>
+        <v>27.66512701488303</v>
       </c>
       <c r="J11">
-        <v>5.783853972077218</v>
+        <v>10.08373785829158</v>
       </c>
       <c r="K11">
-        <v>13.06380042591143</v>
+        <v>11.35840922530282</v>
       </c>
       <c r="L11">
-        <v>6.973554125484166</v>
+        <v>11.17612608431001</v>
       </c>
       <c r="M11">
-        <v>11.23053669657318</v>
+        <v>15.52061483275132</v>
       </c>
       <c r="N11">
-        <v>13.01045434301692</v>
+        <v>21.17106183898338</v>
       </c>
       <c r="O11">
-        <v>18.04477021035944</v>
+        <v>28.48036166203184</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.2416937540764</v>
+        <v>14.26773739768693</v>
       </c>
       <c r="C12">
-        <v>7.254134181500721</v>
+        <v>6.989865389499955</v>
       </c>
       <c r="D12">
-        <v>5.840932095774254</v>
+        <v>8.029534310908137</v>
       </c>
       <c r="E12">
-        <v>7.544599430718037</v>
+        <v>12.76544647895781</v>
       </c>
       <c r="F12">
-        <v>24.83072501731442</v>
+        <v>36.96219975117225</v>
       </c>
       <c r="I12">
-        <v>16.83388699670601</v>
+        <v>27.64635657077945</v>
       </c>
       <c r="J12">
-        <v>5.773184384751926</v>
+        <v>10.08003627420844</v>
       </c>
       <c r="K12">
-        <v>13.21966836312641</v>
+        <v>11.39847242479214</v>
       </c>
       <c r="L12">
-        <v>6.997190112194272</v>
+        <v>11.17578443414196</v>
       </c>
       <c r="M12">
-        <v>11.31326924436943</v>
+        <v>15.53090469009548</v>
       </c>
       <c r="N12">
-        <v>12.95678275599664</v>
+        <v>21.15643168496026</v>
       </c>
       <c r="O12">
-        <v>18.0549499154917</v>
+        <v>28.46474614007378</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.19780248499689</v>
+        <v>14.2558252192155</v>
       </c>
       <c r="C13">
-        <v>7.243416612374921</v>
+        <v>6.98614153066887</v>
       </c>
       <c r="D13">
-        <v>5.832140582357853</v>
+        <v>8.028499040854225</v>
       </c>
       <c r="E13">
-        <v>7.543913254085203</v>
+        <v>12.76635966044616</v>
       </c>
       <c r="F13">
-        <v>24.81742873205069</v>
+        <v>36.96497799998596</v>
       </c>
       <c r="I13">
-        <v>16.8381234169907</v>
+        <v>27.65037256314134</v>
       </c>
       <c r="J13">
-        <v>5.775477239379588</v>
+        <v>10.08083020395006</v>
       </c>
       <c r="K13">
-        <v>13.18624505426446</v>
+        <v>11.38984662116081</v>
       </c>
       <c r="L13">
-        <v>6.99208961950319</v>
+        <v>11.17585043133108</v>
       </c>
       <c r="M13">
-        <v>11.29547806025378</v>
+        <v>15.52867732109573</v>
       </c>
       <c r="N13">
-        <v>12.96832877124866</v>
+        <v>21.15957168292993</v>
       </c>
       <c r="O13">
-        <v>18.05266019301528</v>
+        <v>28.46807876366548</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.05390623423821</v>
+        <v>14.21695584116649</v>
       </c>
       <c r="C14">
-        <v>7.208362314864239</v>
+        <v>6.973969392220628</v>
       </c>
       <c r="D14">
-        <v>5.803425707897664</v>
+        <v>8.02514593675939</v>
       </c>
       <c r="E14">
-        <v>7.541743734520552</v>
+        <v>12.76936770067835</v>
       </c>
       <c r="F14">
-        <v>24.77453252075564</v>
+        <v>36.97420461566063</v>
       </c>
       <c r="I14">
-        <v>16.85225449896937</v>
+        <v>27.66357079098093</v>
       </c>
       <c r="J14">
-        <v>5.782973906947541</v>
+        <v>10.08343185157588</v>
       </c>
       <c r="K14">
-        <v>13.07668943276057</v>
+        <v>11.36170633769756</v>
       </c>
       <c r="L14">
-        <v>6.97549412315836</v>
+        <v>11.17609455799619</v>
       </c>
       <c r="M14">
-        <v>11.23735511896085</v>
+        <v>15.52145630180591</v>
       </c>
       <c r="N14">
-        <v>13.00603280180397</v>
+        <v>21.16985330876427</v>
       </c>
       <c r="O14">
-        <v>18.04556397366425</v>
+        <v>28.47906323873795</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.965182942256</v>
+        <v>14.19313182553993</v>
       </c>
       <c r="C15">
-        <v>7.186812460159018</v>
+        <v>6.966492332626085</v>
       </c>
       <c r="D15">
-        <v>5.785803911075576</v>
+        <v>8.023109889071518</v>
       </c>
       <c r="E15">
-        <v>7.540467151169493</v>
+        <v>12.77123324146964</v>
       </c>
       <c r="F15">
-        <v>24.74861423826313</v>
+        <v>36.97998385345214</v>
       </c>
       <c r="I15">
-        <v>16.86115066682529</v>
+        <v>27.67173285727839</v>
       </c>
       <c r="J15">
-        <v>5.787580616402495</v>
+        <v>10.085035023851</v>
       </c>
       <c r="K15">
-        <v>13.00915665589389</v>
+        <v>11.34446277734852</v>
       </c>
       <c r="L15">
-        <v>6.965358545924959</v>
+        <v>11.17626631341258</v>
       </c>
       <c r="M15">
-        <v>11.20167584848238</v>
+        <v>15.51706629370595</v>
       </c>
       <c r="N15">
-        <v>13.02916643590802</v>
+        <v>21.17618294082077</v>
       </c>
       <c r="O15">
-        <v>18.0415007612585</v>
+        <v>28.4858807295874</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.44778300126501</v>
+        <v>14.05640628794962</v>
       </c>
       <c r="C16">
-        <v>7.062134071645489</v>
+        <v>6.923322764841343</v>
       </c>
       <c r="D16">
-        <v>5.684337653946158</v>
+        <v>8.011717248784466</v>
       </c>
       <c r="E16">
-        <v>7.533947729581146</v>
+        <v>12.78227728262143</v>
       </c>
       <c r="F16">
-        <v>24.60551100702339</v>
+        <v>37.01505920267733</v>
       </c>
       <c r="I16">
-        <v>16.91574626168864</v>
+        <v>27.71969852637564</v>
       </c>
       <c r="J16">
-        <v>5.814208583824062</v>
+        <v>10.09436934809808</v>
       </c>
       <c r="K16">
-        <v>12.61559767336226</v>
+        <v>11.24556727913621</v>
       </c>
       <c r="L16">
-        <v>6.907738217732012</v>
+        <v>11.17759185006993</v>
       </c>
       <c r="M16">
-        <v>10.99607481513265</v>
+        <v>15.49241987841719</v>
       </c>
       <c r="N16">
-        <v>13.1623486278629</v>
+        <v>21.21294430666192</v>
       </c>
       <c r="O16">
-        <v>18.02248990188649</v>
+        <v>28.52631576793691</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.12234329776883</v>
+        <v>13.97239125124857</v>
       </c>
       <c r="C17">
-        <v>6.984604554275867</v>
+        <v>6.896557636723802</v>
       </c>
       <c r="D17">
-        <v>5.62168823895685</v>
+        <v>8.00497577827978</v>
       </c>
       <c r="E17">
-        <v>7.530652597696749</v>
+        <v>12.7893682104558</v>
       </c>
       <c r="F17">
-        <v>24.52251010752931</v>
+        <v>37.03832293529368</v>
       </c>
       <c r="I17">
-        <v>16.95238942952716</v>
+        <v>27.75018787189503</v>
       </c>
       <c r="J17">
-        <v>5.830750458907965</v>
+        <v>10.1002272514695</v>
       </c>
       <c r="K17">
-        <v>12.36829746641347</v>
+        <v>11.18485441608092</v>
       </c>
       <c r="L17">
-        <v>6.872811713400287</v>
+        <v>11.17871029005581</v>
       </c>
       <c r="M17">
-        <v>10.86898354588666</v>
+        <v>15.47776031418879</v>
       </c>
       <c r="N17">
-        <v>13.24461703684144</v>
+        <v>21.23593324688768</v>
       </c>
       <c r="O17">
-        <v>18.01456439185761</v>
+        <v>28.55234072949432</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.94253980796367</v>
+        <v>13.92403315777436</v>
       </c>
       <c r="C18">
-        <v>6.939634108516109</v>
+        <v>6.881061387108028</v>
       </c>
       <c r="D18">
-        <v>5.585517196340317</v>
+        <v>8.001190032024505</v>
       </c>
       <c r="E18">
-        <v>7.529013735205779</v>
+        <v>12.79356294045101</v>
       </c>
       <c r="F18">
-        <v>24.47650878097563</v>
+        <v>37.05234528727024</v>
       </c>
       <c r="I18">
-        <v>16.97459404465309</v>
+        <v>27.7681156065274</v>
       </c>
       <c r="J18">
-        <v>5.840341702408624</v>
+        <v>10.10364502597965</v>
       </c>
       <c r="K18">
-        <v>12.22389643099876</v>
+        <v>11.14992886947708</v>
       </c>
       <c r="L18">
-        <v>6.852881429019998</v>
+        <v>11.17946605948127</v>
       </c>
       <c r="M18">
-        <v>10.79555265285793</v>
+        <v>15.46949931984689</v>
       </c>
       <c r="N18">
-        <v>13.2921507261707</v>
+        <v>21.24931682941508</v>
       </c>
       <c r="O18">
-        <v>18.01134886961241</v>
+        <v>28.56775762758414</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.88286198479162</v>
+        <v>13.90765547971437</v>
       </c>
       <c r="C19">
-        <v>6.924343647282237</v>
+        <v>6.87579735297486</v>
       </c>
       <c r="D19">
-        <v>5.573247934703834</v>
+        <v>7.999924079150644</v>
       </c>
       <c r="E19">
-        <v>7.528502652653317</v>
+        <v>12.7950031804445</v>
       </c>
       <c r="F19">
-        <v>24.46123006763109</v>
+        <v>37.05720321614396</v>
       </c>
       <c r="I19">
-        <v>16.98230321735007</v>
+        <v>27.77425280245012</v>
       </c>
       <c r="J19">
-        <v>5.843602407723838</v>
+        <v>10.10481055902015</v>
       </c>
       <c r="K19">
-        <v>12.17463319551669</v>
+        <v>11.13810384608543</v>
       </c>
       <c r="L19">
-        <v>6.846160937871502</v>
+        <v>11.17974129408724</v>
       </c>
       <c r="M19">
-        <v>10.77063548080455</v>
+        <v>15.46673178010934</v>
       </c>
       <c r="N19">
-        <v>13.30828243262933</v>
+        <v>21.25387595693292</v>
       </c>
       <c r="O19">
-        <v>18.01048793971786</v>
+        <v>28.57305446480785</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.15729347227735</v>
+        <v>13.98133876667077</v>
       </c>
       <c r="C20">
-        <v>6.992896915242566</v>
+        <v>6.899417396177525</v>
       </c>
       <c r="D20">
-        <v>5.628371793674386</v>
+        <v>8.005683939302688</v>
       </c>
       <c r="E20">
-        <v>7.530976777854348</v>
+        <v>12.78860134506545</v>
       </c>
       <c r="F20">
-        <v>24.53116527107575</v>
+        <v>37.03578005978272</v>
       </c>
       <c r="I20">
-        <v>16.94837125917713</v>
+        <v>27.74690175631224</v>
       </c>
       <c r="J20">
-        <v>5.828981620539307</v>
+        <v>10.09959865417165</v>
       </c>
       <c r="K20">
-        <v>12.39484648687709</v>
+        <v>11.19131818117187</v>
       </c>
       <c r="L20">
-        <v>6.876513373267716</v>
+        <v>11.17857959615918</v>
       </c>
       <c r="M20">
-        <v>10.88254743485192</v>
+        <v>15.47930321000913</v>
       </c>
       <c r="N20">
-        <v>13.23583732632731</v>
+        <v>21.23346938478401</v>
       </c>
       <c r="O20">
-        <v>18.01526839482447</v>
+        <v>28.54952395654761</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.09629340558541</v>
+        <v>14.22837601519998</v>
       </c>
       <c r="C21">
-        <v>7.218674912058241</v>
+        <v>6.977549088394463</v>
       </c>
       <c r="D21">
-        <v>5.811866919597173</v>
+        <v>8.026127114535168</v>
       </c>
       <c r="E21">
-        <v>7.542370060227871</v>
+        <v>12.76847936803339</v>
       </c>
       <c r="F21">
-        <v>24.7870576947271</v>
+        <v>36.97146792902772</v>
       </c>
       <c r="I21">
-        <v>16.848053572971</v>
+        <v>27.65967794456631</v>
       </c>
       <c r="J21">
-        <v>5.780768878223977</v>
+        <v>10.082665687036</v>
       </c>
       <c r="K21">
-        <v>13.1089574825711</v>
+        <v>11.36997330270619</v>
       </c>
       <c r="L21">
-        <v>6.980362464673348</v>
+        <v>11.17601822295707</v>
       </c>
       <c r="M21">
-        <v>11.25444345294759</v>
+        <v>15.52357040712993</v>
       </c>
       <c r="N21">
-        <v>12.9949501652328</v>
+        <v>21.16682671262603</v>
       </c>
       <c r="O21">
-        <v>18.04758907090997</v>
+        <v>28.47581824615075</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.68386842167541</v>
+        <v>14.38918264992777</v>
       </c>
       <c r="C22">
-        <v>7.362754224747893</v>
+        <v>7.027665811749707</v>
       </c>
       <c r="D22">
-        <v>5.930339788975704</v>
+        <v>8.040287901761753</v>
       </c>
       <c r="E22">
-        <v>7.552150985368322</v>
+        <v>12.75635969552677</v>
       </c>
       <c r="F22">
-        <v>24.97021590164224</v>
+        <v>36.9351503643577</v>
       </c>
       <c r="I22">
-        <v>16.79317323895208</v>
+        <v>27.60615315172103</v>
       </c>
       <c r="J22">
-        <v>5.749923242917075</v>
+        <v>10.0720284225214</v>
       </c>
       <c r="K22">
-        <v>13.55655285644522</v>
+        <v>11.48645862972199</v>
       </c>
       <c r="L22">
-        <v>7.049570186949502</v>
+        <v>11.17533955055053</v>
       </c>
       <c r="M22">
-        <v>11.49409750069428</v>
+        <v>15.55398647143798</v>
       </c>
       <c r="N22">
-        <v>12.83927407089111</v>
+        <v>21.12469785150494</v>
       </c>
       <c r="O22">
-        <v>18.0813163660094</v>
+        <v>28.43163868389415</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.37264404753557</v>
+        <v>14.30343225216302</v>
       </c>
       <c r="C23">
-        <v>7.286179847716142</v>
+        <v>7.001006193634685</v>
       </c>
       <c r="D23">
-        <v>5.867252082446816</v>
+        <v>8.032657678492495</v>
       </c>
       <c r="E23">
-        <v>7.546714606324476</v>
+        <v>12.76273401738338</v>
       </c>
       <c r="F23">
-        <v>24.87098434491623</v>
+        <v>36.95401092713512</v>
       </c>
       <c r="I23">
-        <v>16.82145483366207</v>
+        <v>27.63440189589185</v>
       </c>
       <c r="J23">
-        <v>5.766326339701773</v>
+        <v>10.07766654349532</v>
       </c>
       <c r="K23">
-        <v>13.31940544367956</v>
+        <v>11.42432449167555</v>
       </c>
       <c r="L23">
-        <v>7.01251407843414</v>
+        <v>11.17561100710494</v>
       </c>
       <c r="M23">
-        <v>11.36652121823674</v>
+        <v>15.53761876566588</v>
       </c>
       <c r="N23">
-        <v>12.92220840153382</v>
+        <v>21.14705269092995</v>
       </c>
       <c r="O23">
-        <v>18.06213102317184</v>
+        <v>28.45485286245034</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.14150200049902</v>
+        <v>13.97729376786151</v>
       </c>
       <c r="C24">
-        <v>6.989149176182084</v>
+        <v>6.898124836808926</v>
       </c>
       <c r="D24">
-        <v>5.625350632644521</v>
+        <v>8.005363499140259</v>
       </c>
       <c r="E24">
-        <v>7.530829420587069</v>
+        <v>12.78894767712714</v>
       </c>
       <c r="F24">
-        <v>24.52724692854386</v>
+        <v>37.03692767620929</v>
       </c>
       <c r="I24">
-        <v>16.95018433639669</v>
+        <v>27.7483861662821</v>
       </c>
       <c r="J24">
-        <v>5.82978105954473</v>
+        <v>10.09988268727963</v>
       </c>
       <c r="K24">
-        <v>12.38285060589678</v>
+        <v>11.18839597551659</v>
       </c>
       <c r="L24">
-        <v>6.874839386569406</v>
+        <v>11.1786383315596</v>
       </c>
       <c r="M24">
-        <v>10.87641633056598</v>
+        <v>15.47860514627685</v>
       </c>
       <c r="N24">
-        <v>13.23980589513835</v>
+        <v>21.23458277676426</v>
       </c>
       <c r="O24">
-        <v>18.01494594544504</v>
+        <v>28.55079600294292</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.81547050635319</v>
+        <v>13.6243779010065</v>
       </c>
       <c r="C25">
-        <v>6.654421210935227</v>
+        <v>6.783289944601287</v>
       </c>
       <c r="D25">
-        <v>5.35936328010538</v>
+        <v>7.979439743450039</v>
       </c>
       <c r="E25">
-        <v>7.523466528488925</v>
+        <v>12.82166866513225</v>
       </c>
       <c r="F25">
-        <v>24.22262755161426</v>
+        <v>37.15089665406124</v>
       </c>
       <c r="I25">
-        <v>17.13184653779135</v>
+        <v>27.88628909951379</v>
       </c>
       <c r="J25">
-        <v>5.901174172785909</v>
+        <v>10.12570061094156</v>
       </c>
       <c r="K25">
-        <v>11.28998924100428</v>
+        <v>10.93385541514496</v>
       </c>
       <c r="L25">
-        <v>6.732438383749003</v>
+        <v>11.18620704500258</v>
       </c>
       <c r="M25">
-        <v>10.3354290018485</v>
+        <v>15.42149823581666</v>
       </c>
       <c r="N25">
-        <v>13.59069216151568</v>
+        <v>21.33515633216837</v>
       </c>
       <c r="O25">
-        <v>18.01501378409866</v>
+        <v>28.67141377487469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_167/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_167/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.36538210713172</v>
+        <v>12.76766181985815</v>
       </c>
       <c r="C2">
-        <v>6.695632360840241</v>
+        <v>6.396420797607572</v>
       </c>
       <c r="D2">
-        <v>7.963456263971554</v>
+        <v>5.160588785553315</v>
       </c>
       <c r="E2">
-        <v>12.84960670177668</v>
+        <v>7.526161133734231</v>
       </c>
       <c r="F2">
-        <v>37.25589866466917</v>
+        <v>24.05246289476326</v>
       </c>
       <c r="I2">
-        <v>28.00070937863699</v>
+        <v>17.29925004348605</v>
       </c>
       <c r="J2">
-        <v>10.14632020270577</v>
+        <v>5.956386531897457</v>
       </c>
       <c r="K2">
-        <v>10.74762511573998</v>
+        <v>10.41370882194144</v>
       </c>
       <c r="L2">
-        <v>11.19551048030369</v>
+        <v>6.633205048983903</v>
       </c>
       <c r="M2">
-        <v>15.38524925947976</v>
+        <v>9.929290740952949</v>
       </c>
       <c r="N2">
-        <v>21.41455861298659</v>
+        <v>13.85703194162384</v>
       </c>
       <c r="O2">
-        <v>28.77495283335093</v>
+        <v>18.05539962713944</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.19134087224952</v>
+        <v>12.01153350180708</v>
       </c>
       <c r="C3">
-        <v>6.634402995201029</v>
+        <v>6.21487838361221</v>
       </c>
       <c r="D3">
-        <v>7.954597282926569</v>
+        <v>5.024871418618751</v>
       </c>
       <c r="E3">
-        <v>12.87095082194856</v>
+        <v>7.532902906923508</v>
       </c>
       <c r="F3">
-        <v>37.34020316456343</v>
+        <v>23.96933792817789</v>
       </c>
       <c r="I3">
-        <v>28.08630121466519</v>
+        <v>17.4322081654055</v>
       </c>
       <c r="J3">
-        <v>10.16130629157166</v>
+        <v>5.995508339153569</v>
       </c>
       <c r="K3">
-        <v>10.62279215314741</v>
+        <v>9.775074768322986</v>
       </c>
       <c r="L3">
-        <v>11.20415672931712</v>
+        <v>6.569632336203404</v>
       </c>
       <c r="M3">
-        <v>15.36437822379487</v>
+        <v>9.650820295800045</v>
       </c>
       <c r="N3">
-        <v>21.47173500941641</v>
+        <v>14.04290525143979</v>
       </c>
       <c r="O3">
-        <v>28.85430788210193</v>
+        <v>18.10618147424346</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.08553309970777</v>
+        <v>11.5252851776852</v>
       </c>
       <c r="C4">
-        <v>6.595948487652365</v>
+        <v>6.100312969472437</v>
       </c>
       <c r="D4">
-        <v>7.950142678483177</v>
+        <v>4.941347138364391</v>
       </c>
       <c r="E4">
-        <v>12.88524882360572</v>
+        <v>7.539417727423071</v>
       </c>
       <c r="F4">
-        <v>37.39844483412981</v>
+        <v>23.93361178585243</v>
       </c>
       <c r="I4">
-        <v>28.14282860660882</v>
+        <v>17.52300605879893</v>
       </c>
       <c r="J4">
-        <v>10.17100951227416</v>
+        <v>6.02038659225586</v>
       </c>
       <c r="K4">
-        <v>10.54703833805142</v>
+        <v>9.360904194380636</v>
       </c>
       <c r="L4">
-        <v>11.21062491242877</v>
+        <v>6.532467103235835</v>
       </c>
       <c r="M4">
-        <v>15.35341062579724</v>
+        <v>9.478864001530452</v>
       </c>
       <c r="N4">
-        <v>21.50851003005478</v>
+        <v>14.15980368768292</v>
       </c>
       <c r="O4">
-        <v>28.90756208757643</v>
+        <v>18.14833451581063</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.04272982242598</v>
+        <v>11.32174849906415</v>
       </c>
       <c r="C5">
-        <v>6.580068127104761</v>
+        <v>6.052882425523836</v>
       </c>
       <c r="D5">
-        <v>7.948576769787878</v>
+        <v>4.907310187911885</v>
       </c>
       <c r="E5">
-        <v>12.89137582664983</v>
+        <v>7.542662574970225</v>
       </c>
       <c r="F5">
-        <v>37.42380704983395</v>
+        <v>23.92281501078945</v>
       </c>
       <c r="I5">
-        <v>28.16686369523543</v>
+        <v>17.56224508523317</v>
       </c>
       <c r="J5">
-        <v>10.17509016190037</v>
+        <v>6.030742603130802</v>
       </c>
       <c r="K5">
-        <v>10.51642546351323</v>
+        <v>9.186598507829057</v>
       </c>
       <c r="L5">
-        <v>11.21355297384081</v>
+        <v>6.517799612626653</v>
       </c>
       <c r="M5">
-        <v>15.34940944668438</v>
+        <v>9.408645285784063</v>
       </c>
       <c r="N5">
-        <v>21.5239168964715</v>
+        <v>14.20815445935836</v>
       </c>
       <c r="O5">
-        <v>28.93040249528845</v>
+        <v>18.16818695117611</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.035642779749</v>
+        <v>11.28763085634496</v>
       </c>
       <c r="C6">
-        <v>6.577418716600708</v>
+        <v>6.044962751091475</v>
       </c>
       <c r="D6">
-        <v>7.948331862024081</v>
+        <v>4.901659825504166</v>
       </c>
       <c r="E6">
-        <v>12.89241137357041</v>
+        <v>7.543236799560475</v>
       </c>
       <c r="F6">
-        <v>37.4281167434979</v>
+        <v>23.92124674363128</v>
       </c>
       <c r="I6">
-        <v>28.17091509896867</v>
+        <v>17.56889401802833</v>
       </c>
       <c r="J6">
-        <v>10.17577540180916</v>
+        <v>6.032475440276776</v>
       </c>
       <c r="K6">
-        <v>10.51135871092006</v>
+        <v>9.157321981256949</v>
       </c>
       <c r="L6">
-        <v>11.21405684551831</v>
+        <v>6.515393145231718</v>
       </c>
       <c r="M6">
-        <v>15.34877343558607</v>
+        <v>9.396979775457352</v>
       </c>
       <c r="N6">
-        <v>21.52650064211404</v>
+        <v>14.21622665392174</v>
       </c>
       <c r="O6">
-        <v>28.93426390737401</v>
+        <v>18.17164252999044</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.08495450269525</v>
+        <v>11.52256180927876</v>
       </c>
       <c r="C7">
-        <v>6.595735160830898</v>
+        <v>6.09967626954198</v>
       </c>
       <c r="D7">
-        <v>7.95012054815741</v>
+        <v>4.940888039150216</v>
       </c>
       <c r="E7">
-        <v>12.88533023725595</v>
+        <v>7.539459109341576</v>
       </c>
       <c r="F7">
-        <v>37.39878028621671</v>
+        <v>23.93345106537411</v>
       </c>
       <c r="I7">
-        <v>28.14314870372121</v>
+        <v>17.52352627211102</v>
       </c>
       <c r="J7">
-        <v>10.17106403264551</v>
+        <v>6.020525371617555</v>
       </c>
       <c r="K7">
-        <v>10.54662439708299</v>
+        <v>9.358575800530865</v>
       </c>
       <c r="L7">
-        <v>11.21066321718544</v>
+        <v>6.532267348744194</v>
       </c>
       <c r="M7">
-        <v>15.35335476404914</v>
+        <v>9.47791745920607</v>
       </c>
       <c r="N7">
-        <v>21.50871610727061</v>
+        <v>14.16045285152495</v>
       </c>
       <c r="O7">
-        <v>28.90786551027027</v>
+        <v>18.14859153364272</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.30518345375276</v>
+        <v>12.51158581307323</v>
       </c>
       <c r="C8">
-        <v>6.674702583014745</v>
+        <v>6.33448766766679</v>
       </c>
       <c r="D8">
-        <v>7.960198353692187</v>
+        <v>5.113861973890963</v>
       </c>
       <c r="E8">
-        <v>12.85671896027803</v>
+        <v>7.527988324871357</v>
       </c>
       <c r="F8">
-        <v>37.28362185379812</v>
+        <v>24.0205713387779</v>
       </c>
       <c r="I8">
-        <v>28.02939701832913</v>
+        <v>17.34315228947046</v>
       </c>
       <c r="J8">
-        <v>10.15138348991171</v>
+        <v>5.96969923031572</v>
       </c>
       <c r="K8">
-        <v>10.70441678833007</v>
+        <v>10.19809017954476</v>
       </c>
       <c r="L8">
-        <v>11.19825151000534</v>
+        <v>6.610902227510923</v>
       </c>
       <c r="M8">
-        <v>15.37767179600848</v>
+        <v>9.833534582031124</v>
       </c>
       <c r="N8">
-        <v>21.43392746270413</v>
+        <v>13.92055617748827</v>
       </c>
       <c r="O8">
-        <v>28.80137417392836</v>
+        <v>18.07058069629857</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.74324987089821</v>
+        <v>14.27199750074742</v>
       </c>
       <c r="C9">
-        <v>6.822469423968106</v>
+        <v>6.769027043141778</v>
       </c>
       <c r="D9">
-        <v>7.987695149408634</v>
+        <v>5.449518424950026</v>
       </c>
       <c r="E9">
-        <v>12.81005065813148</v>
+        <v>7.524666618958813</v>
       </c>
       <c r="F9">
-        <v>37.10922935887071</v>
+        <v>24.31663554334224</v>
       </c>
       <c r="I9">
-        <v>27.83783657662017</v>
+        <v>17.06522159885331</v>
       </c>
       <c r="J9">
-        <v>10.11675472726563</v>
+        <v>5.876721536781211</v>
       </c>
       <c r="K9">
-        <v>11.01949735549784</v>
+        <v>11.6692186072731</v>
       </c>
       <c r="L9">
-        <v>11.18307993518452</v>
+        <v>6.779558311420061</v>
       </c>
       <c r="M9">
-        <v>15.43984487921818</v>
+        <v>10.51907692968281</v>
       </c>
       <c r="N9">
-        <v>21.30045042985808</v>
+        <v>13.47130951466321</v>
       </c>
       <c r="O9">
-        <v>28.62849532349913</v>
+        <v>18.008491489481</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.06598710138397</v>
+        <v>15.48451713918383</v>
       </c>
       <c r="C10">
-        <v>6.926362933717598</v>
+        <v>7.070929133399193</v>
       </c>
       <c r="D10">
-        <v>8.012498875185969</v>
+        <v>5.691467018458416</v>
       </c>
       <c r="E10">
-        <v>12.78148389353953</v>
+        <v>7.53435864733646</v>
       </c>
       <c r="F10">
-        <v>37.01249160027564</v>
+        <v>24.61521911983059</v>
       </c>
       <c r="I10">
-        <v>27.71627246617028</v>
+        <v>16.91172003971817</v>
       </c>
       <c r="J10">
-        <v>10.09370748013383</v>
+        <v>5.812331380842548</v>
       </c>
       <c r="K10">
-        <v>11.25249355141858</v>
+        <v>12.64352396347878</v>
       </c>
       <c r="L10">
-        <v>11.17747944793907</v>
+        <v>6.911744797952048</v>
       </c>
       <c r="M10">
-        <v>15.49411566023979</v>
+        <v>11.01053028693285</v>
       </c>
       <c r="N10">
-        <v>21.21034289319119</v>
+        <v>13.15298985101601</v>
       </c>
       <c r="O10">
-        <v>28.52340685459263</v>
+        <v>18.02357843786263</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.21240084361255</v>
+        <v>16.03697421272016</v>
       </c>
       <c r="C11">
-        <v>6.972540807652806</v>
+        <v>7.204245945043021</v>
       </c>
       <c r="D11">
-        <v>8.024755523230342</v>
+        <v>5.800057824694862</v>
       </c>
       <c r="E11">
-        <v>12.76972308288734</v>
+        <v>7.541496514653733</v>
       </c>
       <c r="F11">
-        <v>36.97530221019591</v>
+        <v>24.7695550212423</v>
       </c>
       <c r="I11">
-        <v>27.66512701488303</v>
+        <v>16.85394151429089</v>
       </c>
       <c r="J11">
-        <v>10.08373785829158</v>
+        <v>5.783853972077122</v>
       </c>
       <c r="K11">
-        <v>11.35840922530282</v>
+        <v>13.06380042591142</v>
       </c>
       <c r="L11">
-        <v>11.17612608431001</v>
+        <v>6.973554125484056</v>
       </c>
       <c r="M11">
-        <v>15.52061483275132</v>
+        <v>11.23053669657316</v>
       </c>
       <c r="N11">
-        <v>21.17106183898338</v>
+        <v>13.01045434301696</v>
       </c>
       <c r="O11">
-        <v>28.48036166203184</v>
+        <v>18.0447702103595</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.26773739768693</v>
+        <v>16.24169375407645</v>
       </c>
       <c r="C12">
-        <v>6.989865389499955</v>
+        <v>7.254134181500596</v>
       </c>
       <c r="D12">
-        <v>8.029534310908137</v>
+        <v>5.840932095774325</v>
       </c>
       <c r="E12">
-        <v>12.76544647895781</v>
+        <v>7.544599430718153</v>
       </c>
       <c r="F12">
-        <v>36.96219975117225</v>
+        <v>24.83072501731433</v>
       </c>
       <c r="I12">
-        <v>27.64635657077945</v>
+        <v>16.83388699670589</v>
       </c>
       <c r="J12">
-        <v>10.08003627420844</v>
+        <v>5.773184384751993</v>
       </c>
       <c r="K12">
-        <v>11.39847242479214</v>
+        <v>13.21966836312644</v>
       </c>
       <c r="L12">
-        <v>11.17578443414196</v>
+        <v>6.997190112194351</v>
       </c>
       <c r="M12">
-        <v>15.53090469009548</v>
+        <v>11.31326924436946</v>
       </c>
       <c r="N12">
-        <v>21.15643168496026</v>
+        <v>12.95678275599657</v>
       </c>
       <c r="O12">
-        <v>28.46474614007378</v>
+        <v>18.05494991549158</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.2558252192155</v>
+        <v>16.19780248499693</v>
       </c>
       <c r="C13">
-        <v>6.98614153066887</v>
+        <v>7.243416612374808</v>
       </c>
       <c r="D13">
-        <v>8.028499040854225</v>
+        <v>5.832140582357832</v>
       </c>
       <c r="E13">
-        <v>12.76635966044616</v>
+        <v>7.543913254085101</v>
       </c>
       <c r="F13">
-        <v>36.96497799998596</v>
+        <v>24.81742873205058</v>
       </c>
       <c r="I13">
-        <v>27.65037256314134</v>
+        <v>16.83812341699058</v>
       </c>
       <c r="J13">
-        <v>10.08083020395006</v>
+        <v>5.775477239379525</v>
       </c>
       <c r="K13">
-        <v>11.38984662116081</v>
+        <v>13.18624505426448</v>
       </c>
       <c r="L13">
-        <v>11.17585043133108</v>
+        <v>6.992089619503145</v>
       </c>
       <c r="M13">
-        <v>15.52867732109573</v>
+        <v>11.29547806025375</v>
       </c>
       <c r="N13">
-        <v>21.15957168292993</v>
+        <v>12.96832877124863</v>
       </c>
       <c r="O13">
-        <v>28.46807876366548</v>
+        <v>18.05266019301519</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.21695584116649</v>
+        <v>16.05390623423826</v>
       </c>
       <c r="C14">
-        <v>6.973969392220628</v>
+        <v>7.20836231486399</v>
       </c>
       <c r="D14">
-        <v>8.02514593675939</v>
+        <v>5.803425707897641</v>
       </c>
       <c r="E14">
-        <v>12.76936770067835</v>
+        <v>7.541743734520392</v>
       </c>
       <c r="F14">
-        <v>36.97420461566063</v>
+        <v>24.77453252075567</v>
       </c>
       <c r="I14">
-        <v>27.66357079098093</v>
+        <v>16.85225449896937</v>
       </c>
       <c r="J14">
-        <v>10.08343185157588</v>
+        <v>5.782973906947444</v>
       </c>
       <c r="K14">
-        <v>11.36170633769756</v>
+        <v>13.07668943276055</v>
       </c>
       <c r="L14">
-        <v>11.17609455799619</v>
+        <v>6.975494123158338</v>
       </c>
       <c r="M14">
-        <v>15.52145630180591</v>
+        <v>11.23735511896081</v>
       </c>
       <c r="N14">
-        <v>21.16985330876427</v>
+        <v>13.00603280180397</v>
       </c>
       <c r="O14">
-        <v>28.47906323873795</v>
+        <v>18.04556397366431</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.19313182553993</v>
+        <v>15.96518294225595</v>
       </c>
       <c r="C15">
-        <v>6.966492332626085</v>
+        <v>7.186812460159214</v>
       </c>
       <c r="D15">
-        <v>8.023109889071518</v>
+        <v>5.785803911075477</v>
       </c>
       <c r="E15">
-        <v>12.77123324146964</v>
+        <v>7.540467151169551</v>
       </c>
       <c r="F15">
-        <v>36.97998385345214</v>
+        <v>24.74861423826313</v>
       </c>
       <c r="I15">
-        <v>27.67173285727839</v>
+        <v>16.86115066682539</v>
       </c>
       <c r="J15">
-        <v>10.085035023851</v>
+        <v>5.787580616402594</v>
       </c>
       <c r="K15">
-        <v>11.34446277734852</v>
+        <v>13.00915665589387</v>
       </c>
       <c r="L15">
-        <v>11.17626631341258</v>
+        <v>6.965358545924939</v>
       </c>
       <c r="M15">
-        <v>15.51706629370595</v>
+        <v>11.20167584848241</v>
       </c>
       <c r="N15">
-        <v>21.17618294082077</v>
+        <v>13.02916643590802</v>
       </c>
       <c r="O15">
-        <v>28.4858807295874</v>
+        <v>18.04150076125855</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.05640628794962</v>
+        <v>15.44778300126501</v>
       </c>
       <c r="C16">
-        <v>6.923322764841343</v>
+        <v>7.062134071645493</v>
       </c>
       <c r="D16">
-        <v>8.011717248784466</v>
+        <v>5.684337653946109</v>
       </c>
       <c r="E16">
-        <v>12.78227728262143</v>
+        <v>7.533947729581157</v>
       </c>
       <c r="F16">
-        <v>37.01505920267733</v>
+        <v>24.60551100702331</v>
       </c>
       <c r="I16">
-        <v>27.71969852637564</v>
+        <v>16.91574626168857</v>
       </c>
       <c r="J16">
-        <v>10.09436934809808</v>
+        <v>5.814208583823998</v>
       </c>
       <c r="K16">
-        <v>11.24556727913621</v>
+        <v>12.61559767336229</v>
       </c>
       <c r="L16">
-        <v>11.17759185006993</v>
+        <v>6.907738217731994</v>
       </c>
       <c r="M16">
-        <v>15.49241987841719</v>
+        <v>10.99607481513261</v>
       </c>
       <c r="N16">
-        <v>21.21294430666192</v>
+        <v>13.16234862786286</v>
       </c>
       <c r="O16">
-        <v>28.52631576793691</v>
+        <v>18.02248990188643</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.97239125124857</v>
+        <v>15.12234329776878</v>
       </c>
       <c r="C17">
-        <v>6.896557636723802</v>
+        <v>6.984604554276075</v>
       </c>
       <c r="D17">
-        <v>8.00497577827978</v>
+        <v>5.621688238956904</v>
       </c>
       <c r="E17">
-        <v>12.7893682104558</v>
+        <v>7.530652597696855</v>
       </c>
       <c r="F17">
-        <v>37.03832293529368</v>
+        <v>24.52251010752935</v>
       </c>
       <c r="I17">
-        <v>27.75018787189503</v>
+        <v>16.95238942952723</v>
       </c>
       <c r="J17">
-        <v>10.1002272514695</v>
+        <v>5.830750458907963</v>
       </c>
       <c r="K17">
-        <v>11.18485441608092</v>
+        <v>12.36829746641345</v>
       </c>
       <c r="L17">
-        <v>11.17871029005581</v>
+        <v>6.872811713400287</v>
       </c>
       <c r="M17">
-        <v>15.47776031418879</v>
+        <v>10.86898354588666</v>
       </c>
       <c r="N17">
-        <v>21.23593324688768</v>
+        <v>13.24461703684144</v>
       </c>
       <c r="O17">
-        <v>28.55234072949432</v>
+        <v>18.01456439185765</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.92403315777436</v>
+        <v>14.94253980796368</v>
       </c>
       <c r="C18">
-        <v>6.881061387108028</v>
+        <v>6.939634108515867</v>
       </c>
       <c r="D18">
-        <v>8.001190032024505</v>
+        <v>5.585517196340277</v>
       </c>
       <c r="E18">
-        <v>12.79356294045101</v>
+        <v>7.529013735205668</v>
       </c>
       <c r="F18">
-        <v>37.05234528727024</v>
+        <v>24.4765087809755</v>
       </c>
       <c r="I18">
-        <v>27.7681156065274</v>
+        <v>16.97459404465299</v>
       </c>
       <c r="J18">
-        <v>10.10364502597965</v>
+        <v>5.840341702408595</v>
       </c>
       <c r="K18">
-        <v>11.14992886947708</v>
+        <v>12.22389643099875</v>
       </c>
       <c r="L18">
-        <v>11.17946605948127</v>
+        <v>6.852881429019954</v>
       </c>
       <c r="M18">
-        <v>15.46949931984689</v>
+        <v>10.7955526528579</v>
       </c>
       <c r="N18">
-        <v>21.24931682941508</v>
+        <v>13.29215072617064</v>
       </c>
       <c r="O18">
-        <v>28.56775762758414</v>
+        <v>18.01134886961233</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.90765547971437</v>
+        <v>14.88286198479162</v>
       </c>
       <c r="C19">
-        <v>6.87579735297486</v>
+        <v>6.924343647282248</v>
       </c>
       <c r="D19">
-        <v>7.999924079150644</v>
+        <v>5.573247934703756</v>
       </c>
       <c r="E19">
-        <v>12.7950031804445</v>
+        <v>7.52850265265326</v>
       </c>
       <c r="F19">
-        <v>37.05720321614396</v>
+        <v>24.46123006763102</v>
       </c>
       <c r="I19">
-        <v>27.77425280245012</v>
+        <v>16.98230321735003</v>
       </c>
       <c r="J19">
-        <v>10.10481055902015</v>
+        <v>5.84360240772387</v>
       </c>
       <c r="K19">
-        <v>11.13810384608543</v>
+        <v>12.1746331955167</v>
       </c>
       <c r="L19">
-        <v>11.17974129408724</v>
+        <v>6.846160937871454</v>
       </c>
       <c r="M19">
-        <v>15.46673178010934</v>
+        <v>10.77063548080453</v>
       </c>
       <c r="N19">
-        <v>21.25387595693292</v>
+        <v>13.3082824326293</v>
       </c>
       <c r="O19">
-        <v>28.57305446480785</v>
+        <v>18.01048793971783</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.98133876667077</v>
+        <v>15.15729347227731</v>
       </c>
       <c r="C20">
-        <v>6.899417396177525</v>
+        <v>6.99289691524245</v>
       </c>
       <c r="D20">
-        <v>8.005683939302688</v>
+        <v>5.628371793674339</v>
       </c>
       <c r="E20">
-        <v>12.78860134506545</v>
+        <v>7.530976777854345</v>
       </c>
       <c r="F20">
-        <v>37.03578005978272</v>
+        <v>24.53116527107598</v>
       </c>
       <c r="I20">
-        <v>27.74690175631224</v>
+        <v>16.94837125917731</v>
       </c>
       <c r="J20">
-        <v>10.09959865417165</v>
+        <v>5.828981620539373</v>
       </c>
       <c r="K20">
-        <v>11.19131818117187</v>
+        <v>12.39484648687699</v>
       </c>
       <c r="L20">
-        <v>11.17857959615918</v>
+        <v>6.876513373267727</v>
       </c>
       <c r="M20">
-        <v>15.47930321000913</v>
+        <v>10.88254743485195</v>
       </c>
       <c r="N20">
-        <v>21.23346938478401</v>
+        <v>13.23583732632745</v>
       </c>
       <c r="O20">
-        <v>28.54952395654761</v>
+        <v>18.01526839482471</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.22837601519998</v>
+        <v>16.09629340558542</v>
       </c>
       <c r="C21">
-        <v>6.977549088394463</v>
+        <v>7.218674912058036</v>
       </c>
       <c r="D21">
-        <v>8.026127114535168</v>
+        <v>5.811866919597151</v>
       </c>
       <c r="E21">
-        <v>12.76847936803339</v>
+        <v>7.542370060227811</v>
       </c>
       <c r="F21">
-        <v>36.97146792902772</v>
+        <v>24.78705769472716</v>
       </c>
       <c r="I21">
-        <v>27.65967794456631</v>
+        <v>16.848053572971</v>
       </c>
       <c r="J21">
-        <v>10.082665687036</v>
+        <v>5.780768878223977</v>
       </c>
       <c r="K21">
-        <v>11.36997330270619</v>
+        <v>13.10895748257109</v>
       </c>
       <c r="L21">
-        <v>11.17601822295707</v>
+        <v>6.980362464673368</v>
       </c>
       <c r="M21">
-        <v>15.52357040712993</v>
+        <v>11.2544434529476</v>
       </c>
       <c r="N21">
-        <v>21.16682671262603</v>
+        <v>12.99495016523283</v>
       </c>
       <c r="O21">
-        <v>28.47581824615075</v>
+        <v>18.04758907091005</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.38918264992777</v>
+        <v>16.68386842167541</v>
       </c>
       <c r="C22">
-        <v>7.027665811749707</v>
+        <v>7.362754224747778</v>
       </c>
       <c r="D22">
-        <v>8.040287901761753</v>
+        <v>5.930339788975754</v>
       </c>
       <c r="E22">
-        <v>12.75635969552677</v>
+        <v>7.552150985368376</v>
       </c>
       <c r="F22">
-        <v>36.9351503643577</v>
+        <v>24.9702159016422</v>
       </c>
       <c r="I22">
-        <v>27.60615315172103</v>
+        <v>16.79317323895202</v>
       </c>
       <c r="J22">
-        <v>10.0720284225214</v>
+        <v>5.749923242917141</v>
       </c>
       <c r="K22">
-        <v>11.48645862972199</v>
+        <v>13.55655285644522</v>
       </c>
       <c r="L22">
-        <v>11.17533955055053</v>
+        <v>7.049570186949551</v>
       </c>
       <c r="M22">
-        <v>15.55398647143798</v>
+        <v>11.4940975006943</v>
       </c>
       <c r="N22">
-        <v>21.12469785150494</v>
+        <v>12.83927407089104</v>
       </c>
       <c r="O22">
-        <v>28.43163868389415</v>
+        <v>18.08131636600935</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.30343225216302</v>
+        <v>16.37264404753564</v>
       </c>
       <c r="C23">
-        <v>7.001006193634685</v>
+        <v>7.286179847716323</v>
       </c>
       <c r="D23">
-        <v>8.032657678492495</v>
+        <v>5.867252082446684</v>
       </c>
       <c r="E23">
-        <v>12.76273401738338</v>
+        <v>7.546714606324429</v>
       </c>
       <c r="F23">
-        <v>36.95401092713512</v>
+        <v>24.87098434491584</v>
       </c>
       <c r="I23">
-        <v>27.63440189589185</v>
+        <v>16.82145483366187</v>
       </c>
       <c r="J23">
-        <v>10.07766654349532</v>
+        <v>5.766326339701807</v>
       </c>
       <c r="K23">
-        <v>11.42432449167555</v>
+        <v>13.31940544367966</v>
       </c>
       <c r="L23">
-        <v>11.17561100710494</v>
+        <v>7.012514078434096</v>
       </c>
       <c r="M23">
-        <v>15.53761876566588</v>
+        <v>11.36652121823669</v>
       </c>
       <c r="N23">
-        <v>21.14705269092995</v>
+        <v>12.92220840153368</v>
       </c>
       <c r="O23">
-        <v>28.45485286245034</v>
+        <v>18.06213102317159</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.97729376786151</v>
+        <v>15.14150200049906</v>
       </c>
       <c r="C24">
-        <v>6.898124836808926</v>
+        <v>6.98914917618219</v>
       </c>
       <c r="D24">
-        <v>8.005363499140259</v>
+        <v>5.625350632644497</v>
       </c>
       <c r="E24">
-        <v>12.78894767712714</v>
+        <v>7.530829420586962</v>
       </c>
       <c r="F24">
-        <v>37.03692767620929</v>
+        <v>24.52724692854359</v>
       </c>
       <c r="I24">
-        <v>27.7483861662821</v>
+        <v>16.95018433639653</v>
       </c>
       <c r="J24">
-        <v>10.09988268727963</v>
+        <v>5.829781059544667</v>
       </c>
       <c r="K24">
-        <v>11.18839597551659</v>
+        <v>12.38285060589681</v>
       </c>
       <c r="L24">
-        <v>11.1786383315596</v>
+        <v>6.874839386569315</v>
       </c>
       <c r="M24">
-        <v>15.47860514627685</v>
+        <v>10.87641633056593</v>
       </c>
       <c r="N24">
-        <v>21.23458277676426</v>
+        <v>13.23980589513825</v>
       </c>
       <c r="O24">
-        <v>28.55079600294292</v>
+        <v>18.0149459454449</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.6243779010065</v>
+        <v>13.81547050635321</v>
       </c>
       <c r="C25">
-        <v>6.783289944601287</v>
+        <v>6.654421210935316</v>
       </c>
       <c r="D25">
-        <v>7.979439743450039</v>
+        <v>5.359363280105386</v>
       </c>
       <c r="E25">
-        <v>12.82166866513225</v>
+        <v>7.523466528488863</v>
       </c>
       <c r="F25">
-        <v>37.15089665406124</v>
+        <v>24.22262755161446</v>
       </c>
       <c r="I25">
-        <v>27.88628909951379</v>
+        <v>17.1318465377915</v>
       </c>
       <c r="J25">
-        <v>10.12570061094156</v>
+        <v>5.901174172785909</v>
       </c>
       <c r="K25">
-        <v>10.93385541514496</v>
+        <v>11.28998924100427</v>
       </c>
       <c r="L25">
-        <v>11.18620704500258</v>
+        <v>6.732438383749042</v>
       </c>
       <c r="M25">
-        <v>15.42149823581666</v>
+        <v>10.33542900184851</v>
       </c>
       <c r="N25">
-        <v>21.33515633216837</v>
+        <v>13.59069216151578</v>
       </c>
       <c r="O25">
-        <v>28.67141377487469</v>
+        <v>18.01501378409882</v>
       </c>
     </row>
   </sheetData>
